--- a/report/tables/Modal Shift/TERI.xlsx
+++ b/report/tables/Modal Shift/TERI.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">TERI</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
@@ -35,32 +38,41 @@
     <t xml:space="preserve">Outputs</t>
   </si>
   <si>
+    <t xml:space="preserve">5 articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-First Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication pieces developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve public awareness and usage of public transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 articles - the research team has already published articles in news media and magazines: 1. Money Control: Net-Zero Emissions | We need diverse strategies to decarbonize India’s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 policy briefs on private freight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-First Half</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy and regulatory recommendations</t>
   </si>
   <si>
     <t xml:space="preserve">Increased share of railways in freight transport</t>
   </si>
   <si>
-    <t xml:space="preserve">2 policy briefs published, focused on private freight terminals and freight forwarder scheme of IR namely â€“ â€˜Developing Rail Freight Terminals: Energizing Private Partnershipsâ€™ and  Moving Towards Aggregation: Freight Forwarders Scheme of Railwaysâ€™.https://www.teriin.org/policy-brief/developing-rail-freight-terminals-energizing-private-partnerships https://www.teriin.org/policy-brief/moving-towards-aggregation-freight-forwarder-scheme-railways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication pieces developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve public awareness and usage of public transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 articles - the research team has already published articles in news media and magazines: 1. Money Control: Net-Zero Emissions | We need diverse strategies to decarbonize Indiaâ€™s
-</t>
+    <t xml:space="preserve">2 policy briefs published, focused on private freight terminals and freight forwarder scheme of IR namely – ‘Developing Rail Freight Terminals: Energizing Private Partnerships’ and  Moving Towards Aggregation: Freight Forwarders Scheme of Railways’.https://www.teriin.org/policy-brief/developing-rail-freight-terminals-energizing-private-partnerships https://www.teriin.org/policy-brief/moving-towards-aggregation-freight-forwarder-scheme-railways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training ?</t>
   </si>
   <si>
     <t xml:space="preserve">Trainings/Webinars/Seminars</t>
@@ -162,13 +174,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -466,11 +478,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="30.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="30.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="70.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="30.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="70.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -494,71 +507,84 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/report/tables/Modal Shift/TERI.xlsx
+++ b/report/tables/Modal Shift/TERI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">TERI</t>
   </si>
@@ -38,47 +38,67 @@
     <t xml:space="preserve">Outputs</t>
   </si>
   <si>
-    <t xml:space="preserve">5 articles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Process</t>
+    <t xml:space="preserve">Op-ed on constraints and policy recommendations to expand Railways' share of small goods freight volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
   </si>
   <si>
     <t xml:space="preserve">2022-First Half</t>
   </si>
   <si>
-    <t xml:space="preserve">Communication pieces developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve public awareness and usage of public transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 articles - the research team has already published articles in news media and magazines: 1. Money Control: Net-Zero Emissions | We need diverse strategies to decarbonize India’s
+    <t xml:space="preserve">Communication pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased share of railways in freight transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Rail Plan 2020 has indicated different scenarios of traffic share that the Railways could be handling by 2051,estimating a significant increase in the share of Export-Import container traffic, and smaller goods, while a decline in share of bulk commodities including coal. 
+The revised freight forwarder scheme (FFS) aims to promote expansion of the commodity basket of railways, through aggregation of goods at private freight terminals and goods sheds, but has design flaws that make it unattractive to customers. Further, major operational and logistical issues like terminal congestion, inadequate access roads to stations, poor warehousing infrastructure, high handling charges and first/last mile costs, high transit time have driven freight customers to more expensive but convenient, reliable road transport services.
+Solutions recommended are a separate unit in the Railways to manage small traffic - freight forwarders, domestic containers, and parcels traffic and flexible policy framework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media article on improving share of railways in freight transport in India through increased capacity and revised tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decarbonizing Transport: Enabling A Shift To Railways Is Essential For Meeting Climate Goals (Business World).
+Article published Aug 2021, discusses role of freight in meeting Paris Agreement commitments, and in achieving a 45 percent share of rail in land freight transport. Key suggestions include expanding Railways capacity through infrastructure investments in tracks, freight corridors, terminals, and revising tariffs to be more competitive to compete with road freight pricing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media article on multiple strategies necessary for deep decarbonisation of the Indian transport sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Net-Zero Emissions- We need diverse strategies to decarbonize India’s transport sector', Money Control, Aug 2021.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2 policy briefs on private freight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy and regulatory recommendations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased share of railways in freight transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 policy briefs published, focused on private freight terminals and freight forwarder scheme of IR namely – ‘Developing Rail Freight Terminals: Energizing Private Partnerships’ and  Moving Towards Aggregation: Freight Forwarders Scheme of Railways’.https://www.teriin.org/policy-brief/developing-rail-freight-terminals-energizing-private-partnerships https://www.teriin.org/policy-brief/moving-towards-aggregation-freight-forwarder-scheme-railways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainings/Webinars/Seminars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not done yet</t>
+    <t xml:space="preserve">Policy brief on Freight Forwarder Scheme of Railways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy brief published in Feb 2022 on the Freight Forwarder Scheme – ‘Moving towards Aggregation: Freight Forwarder Scheme of Railways’. 
+was carried out with a view to
+Aimed at understanding the key constraints limiting the wider adoption of the policy. Prepared using primary data collected on a site visit to the key freight forwarding goods shed of the North, Kishanganj New Delhi, secondary data and consultations.
+The policy brief examines the functioning of freight aggregators, undertakes an in-depth analysis of challenges and barriers in the expansion of their role and suggests measures to overcome them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy brief on enhancing Railway's capacity in freight handling, accelerating private sector participation in freight terminal development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy brief published, focused on improving freight handling and private involvement in terminals management– ‘Developing Rail Freight Terminals: Energizing Private Partnerships’. 
+It examines the policy interventions related to freight terminal development, and identify the key concerns discouraging the private players from investing in freight terminal development. The study also focuses on the constraints of existing freight terminals of Railways. In the end, the policy brief suggests certain measures to enhance the railway's capacity in freight handling and to accelerate the private participation for freight terminal development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op-ed 'New Dynamics- DFC to bring shift in freight management'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-Second Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Published in Indian Infrastructure, Nov 2021.
+The article lays out the potential of new Dedicated Freight Corridors (DFCs) - dedicated tracks for freight traffic leading to faster delivery times - to increase freight market share for railways, outlining possible issues based on learnings from previous similar initiatives in India. It suggests institutional arrangements and financial mechanisms to smoothen operational challenges of plying freight trains and recover investments. </t>
   </si>
 </sst>
 </file>
@@ -546,24 +566,24 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -572,13 +592,73 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
